--- a/Assets/Excel/ExcelFiles/DisasterEvent.xlsx
+++ b/Assets/Excel/ExcelFiles/DisasterEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EmergencyRoulette\Assets\Excel\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yun/Desktop/Projects/EmergencyRoulette/Assets/Excel/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{755B8C41-6543-4D92-A12D-92C421FD5ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC88F41-50AA-0F43-964A-225B76895690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3E4A9909-ED32-4035-87C8-4CA1B27647A3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21800" windowHeight="12980" xr2:uid="{3E4A9909-ED32-4035-87C8-4CA1B27647A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,19 +505,19 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -559,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
